--- a/Modified Data Sets/ARCHIVE/COVID Time to Peak Death (Through 2020-11-15) (ver2).xlsx
+++ b/Modified Data Sets/ARCHIVE/COVID Time to Peak Death (Through 2020-11-15) (ver2).xlsx
@@ -1468,10 +1468,10 @@
         <v>250</v>
       </c>
       <c r="AD3">
-        <v>2.154761904761905</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="AE3">
-        <v>1.817460317460317</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="AF3">
         <v>1.03968253968254</v>
@@ -1480,22 +1480,22 @@
         <v>0.6349206349206349</v>
       </c>
       <c r="AH3">
-        <v>3.095238095238095</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="AI3">
-        <v>1.817460317460317</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="AJ3">
-        <v>0.6349206349206349</v>
+        <v>1.273809523809524</v>
       </c>
       <c r="AK3">
-        <v>11.19444444444444</v>
+        <v>12.52777777777778</v>
       </c>
       <c r="AL3">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM3">
-        <v>3.61889367816092</v>
+        <v>4.04992816091954</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1851,13 +1851,13 @@
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="S7">
         <v>56.55</v>
@@ -1878,45 +1878,45 @@
         <v>0</v>
       </c>
       <c r="AB7" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC7">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD7">
-        <v>1.454545454545455</v>
+        <v>1.431309904153355</v>
       </c>
       <c r="AE7">
-        <v>0.2987012987012987</v>
+        <v>0.2939297124600639</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.7337662337662337</v>
+        <v>0.7220447284345048</v>
       </c>
       <c r="AH7">
-        <v>0.75</v>
+        <v>0.7380191693290735</v>
       </c>
       <c r="AI7">
-        <v>0.461038961038961</v>
+        <v>0.4536741214057508</v>
       </c>
       <c r="AJ7">
-        <v>0.2142857142857143</v>
+        <v>0.2108626198083067</v>
       </c>
       <c r="AK7">
-        <v>3.912337662337662</v>
+        <v>3.849840255591054</v>
       </c>
       <c r="AL7">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM7">
-        <v>1.264764330497089</v>
+        <v>1.244560427454005</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>2206</v>
+        <v>2211</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>2500</v>
+        <v>2505</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>2825</v>
+        <v>2830</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>3133</v>
+        <v>3143</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E11">
         <v>169</v>
@@ -2279,45 +2279,45 @@
         <v>0</v>
       </c>
       <c r="AB11" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC11">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD11">
-        <v>0.9707792207792207</v>
+        <v>0.9552715654952076</v>
       </c>
       <c r="AE11">
-        <v>1.324675324675325</v>
+        <v>1.303514376996805</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.7305194805194806</v>
+        <v>0.7188498402555911</v>
       </c>
       <c r="AH11">
-        <v>1.844155844155844</v>
+        <v>1.814696485623003</v>
       </c>
       <c r="AI11">
-        <v>0.6753246753246753</v>
+        <v>0.6645367412140575</v>
       </c>
       <c r="AJ11">
-        <v>1.081168831168831</v>
+        <v>1.063897763578275</v>
       </c>
       <c r="AK11">
-        <v>6.626623376623377</v>
+        <v>6.52076677316294</v>
       </c>
       <c r="AL11">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM11">
-        <v>2.142227384684281</v>
+        <v>2.108006499944916</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>3381</v>
+        <v>3391</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>3773</v>
+        <v>3783</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2523,39 +2523,39 @@
         <v>249</v>
       </c>
       <c r="AD13">
-        <v>1.182509505703422</v>
+        <v>1.231939163498099</v>
       </c>
       <c r="AE13">
-        <v>1.513307984790875</v>
+        <v>1.55893536121673</v>
       </c>
       <c r="AF13">
-        <v>0.2243346007604563</v>
+        <v>0.2509505703422053</v>
       </c>
       <c r="AG13">
-        <v>0.5779467680608364</v>
+        <v>0.596958174904943</v>
       </c>
       <c r="AH13">
-        <v>2.642585551330798</v>
+        <v>2.73384030418251</v>
       </c>
       <c r="AI13">
-        <v>1.433460076045627</v>
+        <v>1.479087452471483</v>
       </c>
       <c r="AJ13">
-        <v>0.5475285171102662</v>
+        <v>0.5931558935361216</v>
       </c>
       <c r="AK13">
-        <v>8.121673003802281</v>
+        <v>8.444866920152093</v>
       </c>
       <c r="AL13">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM13">
-        <v>2.625540841746427</v>
+        <v>2.730021633669858</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>4093</v>
+        <v>4103</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -2642,39 +2642,39 @@
         <v>248</v>
       </c>
       <c r="AD14">
-        <v>2.546153846153846</v>
+        <v>2.626923076923077</v>
       </c>
       <c r="AE14">
+        <v>1.865384615384615</v>
+      </c>
+      <c r="AF14">
+        <v>0.9807692307692307</v>
+      </c>
+      <c r="AG14">
+        <v>1.734615384615385</v>
+      </c>
+      <c r="AH14">
+        <v>3.661538461538461</v>
+      </c>
+      <c r="AI14">
+        <v>1.834615384615385</v>
+      </c>
+      <c r="AJ14">
         <v>1.815384615384615</v>
       </c>
-      <c r="AF14">
-        <v>0.9538461538461539</v>
-      </c>
-      <c r="AG14">
-        <v>1.707692307692308</v>
-      </c>
-      <c r="AH14">
-        <v>3.553846153846154</v>
-      </c>
-      <c r="AI14">
-        <v>1.780769230769231</v>
-      </c>
-      <c r="AJ14">
-        <v>1.788461538461539</v>
-      </c>
       <c r="AK14">
-        <v>14.14615384615385</v>
+        <v>14.51923076923077</v>
       </c>
       <c r="AL14">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM14">
-        <v>4.573110079575597</v>
+        <v>4.693716843501327</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>4381</v>
+        <v>4391</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>4686</v>
+        <v>4696</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>4921</v>
+        <v>4931</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18">
-        <v>5352</v>
+        <v>5362</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -3097,39 +3097,39 @@
         <v>225</v>
       </c>
       <c r="AD18">
-        <v>20.22727272727273</v>
+        <v>20.36363636363636</v>
       </c>
       <c r="AE18">
-        <v>15.90909090909091</v>
+        <v>16.04545454545455</v>
       </c>
       <c r="AF18">
-        <v>8.590909090909092</v>
+        <v>8.727272727272727</v>
       </c>
       <c r="AG18">
         <v>10.22727272727273</v>
       </c>
       <c r="AH18">
-        <v>16.36363636363636</v>
+        <v>16.63636363636364</v>
       </c>
       <c r="AI18">
-        <v>12.86363636363636</v>
+        <v>13</v>
       </c>
       <c r="AJ18">
         <v>11.54545454545454</v>
       </c>
       <c r="AK18">
-        <v>95.72727272727272</v>
+        <v>96.54545454545455</v>
       </c>
       <c r="AL18">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM18">
-        <v>30.94631661442006</v>
+        <v>31.21081504702195</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>5549</v>
+        <v>5559</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -3216,7 +3216,7 @@
         <v>107</v>
       </c>
       <c r="AD19">
-        <v>0.183206106870229</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3231,24 +3231,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.3854961832061068</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.183206106870229</v>
+        <v>0.5076335877862596</v>
       </c>
       <c r="AL19">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM19">
-        <v>0.05922611213477231</v>
+        <v>0.164105685706765</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>5792</v>
+        <v>5802</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>6311</v>
+        <v>6321</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -3454,39 +3454,39 @@
         <v>223</v>
       </c>
       <c r="AD21">
-        <v>2.789473684210526</v>
+        <v>2.842105263157895</v>
       </c>
       <c r="AE21">
-        <v>2.140350877192982</v>
+        <v>2.175438596491228</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>1.565789473684211</v>
+        <v>1.600877192982456</v>
       </c>
       <c r="AH21">
-        <v>3.184210526315789</v>
+        <v>3.254385964912281</v>
       </c>
       <c r="AI21">
-        <v>1.859649122807018</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="AJ21">
-        <v>1.12280701754386</v>
+        <v>1.140350877192982</v>
       </c>
       <c r="AK21">
-        <v>12.66228070175439</v>
+        <v>12.90789473684211</v>
       </c>
       <c r="AL21">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM21">
-        <v>4.093409709618875</v>
+        <v>4.172810798548094</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>6505</v>
+        <v>6515</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23">
-        <v>6940</v>
+        <v>6955</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="G23">
         <v>62000</v>
@@ -3656,45 +3656,45 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC23">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD23">
-        <v>1.269480519480519</v>
+        <v>1.249201277955271</v>
       </c>
       <c r="AE23">
-        <v>1.136363636363636</v>
+        <v>1.118210862619808</v>
       </c>
       <c r="AF23">
-        <v>0.4155844155844156</v>
+        <v>0.4089456869009584</v>
       </c>
       <c r="AG23">
-        <v>0.5909090909090909</v>
+        <v>0.5814696485623003</v>
       </c>
       <c r="AH23">
-        <v>2.227272727272727</v>
+        <v>2.191693290734824</v>
       </c>
       <c r="AI23">
-        <v>0.7694805194805194</v>
+        <v>0.7571884984025559</v>
       </c>
       <c r="AJ23">
-        <v>0.564935064935065</v>
+        <v>0.5559105431309904</v>
       </c>
       <c r="AK23">
-        <v>6.974025974025974</v>
+        <v>6.86261980830671</v>
       </c>
       <c r="AL23">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM23">
-        <v>2.254534258844604</v>
+        <v>2.218519334581911</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24">
-        <v>7260</v>
+        <v>7275</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -3781,39 +3781,39 @@
         <v>320</v>
       </c>
       <c r="AD24">
-        <v>3.376404494382022</v>
+        <v>3.713483146067416</v>
       </c>
       <c r="AE24">
-        <v>2.48314606741573</v>
+        <v>2.775280898876404</v>
       </c>
       <c r="AF24">
-        <v>0.9101123595505618</v>
+        <v>1.286516853932584</v>
       </c>
       <c r="AG24">
-        <v>2.48314606741573</v>
+        <v>2.550561797752809</v>
       </c>
       <c r="AH24">
-        <v>4.696629213483146</v>
+        <v>4.876404494382022</v>
       </c>
       <c r="AI24">
-        <v>2.050561797752809</v>
+        <v>2.393258426966292</v>
       </c>
       <c r="AJ24">
-        <v>1.443820224719101</v>
+        <v>2.01123595505618</v>
       </c>
       <c r="AK24">
-        <v>17.4438202247191</v>
+        <v>19.60674157303371</v>
       </c>
       <c r="AL24">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM24">
-        <v>5.639166020922123</v>
+        <v>6.338386284385896</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25">
-        <v>7511</v>
+        <v>7526</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26">
-        <v>7900</v>
+        <v>7915</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -4019,10 +4019,10 @@
         <v>240</v>
       </c>
       <c r="AD26">
-        <v>2.238866396761134</v>
+        <v>2.251012145748988</v>
       </c>
       <c r="AE26">
-        <v>1.554655870445344</v>
+        <v>1.566801619433198</v>
       </c>
       <c r="AF26">
         <v>0.4291497975708502</v>
@@ -4031,27 +4031,27 @@
         <v>0.8987854251012146</v>
       </c>
       <c r="AH26">
-        <v>2.870445344129555</v>
+        <v>2.906882591093118</v>
       </c>
       <c r="AI26">
-        <v>1.838056680161943</v>
+        <v>1.862348178137652</v>
       </c>
       <c r="AJ26">
         <v>0.631578947368421</v>
       </c>
       <c r="AK26">
-        <v>10.46153846153846</v>
+        <v>10.54655870445344</v>
       </c>
       <c r="AL26">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM26">
-        <v>3.381962864721486</v>
+        <v>3.409447857043138</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27">
-        <v>8220</v>
+        <v>8235</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -4138,39 +4138,39 @@
         <v>230</v>
       </c>
       <c r="AD27">
-        <v>1.70995670995671</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="AE27">
-        <v>1.298701298701299</v>
+        <v>1.346320346320346</v>
       </c>
       <c r="AF27">
         <v>0.2380952380952381</v>
       </c>
       <c r="AG27">
-        <v>1.645021645021645</v>
+        <v>1.692640692640693</v>
       </c>
       <c r="AH27">
-        <v>3.021645021645022</v>
+        <v>3.164502164502164</v>
       </c>
       <c r="AI27">
-        <v>1.341991341991342</v>
+        <v>1.38961038961039</v>
       </c>
       <c r="AJ27">
-        <v>1.203463203463204</v>
+        <v>1.251082251082251</v>
       </c>
       <c r="AK27">
-        <v>10.45887445887446</v>
+        <v>10.83982683982684</v>
       </c>
       <c r="AL27">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM27">
-        <v>3.381101656963726</v>
+        <v>3.504254366323332</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28">
-        <v>8433</v>
+        <v>8448</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -4289,13 +4289,13 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29">
-        <v>8848</v>
+        <v>8868</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="G29">
         <v>30000</v>
@@ -4328,45 +4328,45 @@
         <v>0</v>
       </c>
       <c r="AB29" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC29">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD29">
-        <v>1.626623376623377</v>
+        <v>1.600638977635783</v>
       </c>
       <c r="AE29">
-        <v>0.9090909090909091</v>
+        <v>0.8945686900958466</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.07792207792207792</v>
+        <v>0.07667731629392971</v>
       </c>
       <c r="AH29">
-        <v>1.75</v>
+        <v>1.722044728434505</v>
       </c>
       <c r="AI29">
-        <v>1.103896103896104</v>
+        <v>1.086261980830671</v>
       </c>
       <c r="AJ29">
-        <v>1.146103896103896</v>
+        <v>1.12779552715655</v>
       </c>
       <c r="AK29">
-        <v>6.613636363636363</v>
+        <v>6.507987220447284</v>
       </c>
       <c r="AL29">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM29">
-        <v>2.138028996865204</v>
+        <v>2.103875179023907</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30">
-        <v>9016</v>
+        <v>9036</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31">
-        <v>9488</v>
+        <v>9508</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -4572,10 +4572,10 @@
         <v>250</v>
       </c>
       <c r="AD31">
-        <v>1.940711462450593</v>
+        <v>2.019762845849802</v>
       </c>
       <c r="AE31">
-        <v>0.9169960474308301</v>
+        <v>0.9960474308300395</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4584,27 +4584,27 @@
         <v>0.3873517786561265</v>
       </c>
       <c r="AH31">
-        <v>2.201581027667984</v>
+        <v>2.320158102766798</v>
       </c>
       <c r="AI31">
-        <v>1.245059288537549</v>
+        <v>1.284584980237154</v>
       </c>
       <c r="AJ31">
         <v>0.4387351778656127</v>
       </c>
       <c r="AK31">
-        <v>7.130434782608694</v>
+        <v>7.446640316205533</v>
       </c>
       <c r="AL31">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM31">
-        <v>2.305097451274362</v>
+        <v>2.407319067738858</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32">
-        <v>9602</v>
+        <v>9622</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33">
-        <v>10087</v>
+        <v>10107</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34">
-        <v>10427</v>
+        <v>10447</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35">
-        <v>10724</v>
+        <v>10744</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36">
-        <v>10799</v>
+        <v>10819</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37">
-        <v>11241</v>
+        <v>11261</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38">
-        <v>11522</v>
+        <v>11542</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -5383,13 +5383,13 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39">
-        <v>12015</v>
+        <v>12040</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
       <c r="D39" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E39">
         <v>157</v>
@@ -5428,45 +5428,45 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC39">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD39">
-        <v>1.051948051948052</v>
+        <v>1.035143769968051</v>
       </c>
       <c r="AE39">
-        <v>0.8701298701298701</v>
+        <v>0.8562300319488818</v>
       </c>
       <c r="AF39">
-        <v>0.538961038961039</v>
+        <v>0.5303514376996805</v>
       </c>
       <c r="AG39">
-        <v>0.6428571428571429</v>
+        <v>0.6325878594249201</v>
       </c>
       <c r="AH39">
-        <v>1.564935064935065</v>
+        <v>1.539936102236422</v>
       </c>
       <c r="AI39">
-        <v>0.961038961038961</v>
+        <v>0.9456869009584664</v>
       </c>
       <c r="AJ39">
-        <v>0.6558441558441559</v>
+        <v>0.645367412140575</v>
       </c>
       <c r="AK39">
-        <v>6.285714285714285</v>
+        <v>6.185303514376996</v>
       </c>
       <c r="AL39">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM39">
-        <v>2.032019704433497</v>
+        <v>1.999559325768426</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40">
-        <v>12207</v>
+        <v>12232</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="41" spans="1:39">
       <c r="A41">
-        <v>12483</v>
+        <v>12508</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42">
-        <v>12842</v>
+        <v>12867</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43">
-        <v>13035</v>
+        <v>13060</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44">
-        <v>13534</v>
+        <v>13559</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="45" spans="1:39">
       <c r="A45">
-        <v>13914</v>
+        <v>13939</v>
       </c>
       <c r="B45" t="s">
         <v>82</v>
@@ -6147,57 +6147,57 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46">
-        <v>14222</v>
+        <v>14252</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC46">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD46">
-        <v>1.516233766233766</v>
+        <v>1.549520766773163</v>
       </c>
       <c r="AE46">
-        <v>1.743506493506493</v>
+        <v>1.830670926517572</v>
       </c>
       <c r="AF46">
-        <v>0.5681818181818182</v>
+        <v>0.5591054313099042</v>
       </c>
       <c r="AG46">
-        <v>0.7467532467532467</v>
+        <v>0.7348242811501597</v>
       </c>
       <c r="AH46">
-        <v>2.025974025974026</v>
+        <v>2.166134185303514</v>
       </c>
       <c r="AI46">
-        <v>1.305194805194805</v>
+        <v>1.34185303514377</v>
       </c>
       <c r="AJ46">
-        <v>1.516233766233766</v>
+        <v>1.60702875399361</v>
       </c>
       <c r="AK46">
-        <v>9.422077922077921</v>
+        <v>9.789137380191693</v>
       </c>
       <c r="AL46">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM46">
-        <v>3.045930362740707</v>
+        <v>3.164591825493004</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47">
-        <v>14453</v>
+        <v>14483</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="48" spans="1:39">
       <c r="A48">
-        <v>14684</v>
+        <v>14714</v>
       </c>
       <c r="B48" t="s">
         <v>85</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49">
-        <v>15107</v>
+        <v>15137</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50">
-        <v>15341</v>
+        <v>15371</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51">
-        <v>15780</v>
+        <v>15810</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
@@ -6619,7 +6619,7 @@
         <v>242</v>
       </c>
       <c r="AD51">
-        <v>1.704545454545455</v>
+        <v>1.738636363636364</v>
       </c>
       <c r="AE51">
         <v>0.9166666666666666</v>
@@ -6631,27 +6631,27 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="AH51">
-        <v>1.757575757575758</v>
+        <v>1.859848484848485</v>
       </c>
       <c r="AI51">
-        <v>0.7537878787878788</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="AJ51">
         <v>0.4659090909090909</v>
       </c>
       <c r="AK51">
-        <v>6.556818181818182</v>
+        <v>6.727272727272727</v>
       </c>
       <c r="AL51">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM51">
-        <v>2.11966105015674</v>
+        <v>2.174764890282132</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52">
-        <v>15905</v>
+        <v>15935</v>
       </c>
       <c r="B52" t="s">
         <v>89</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="53" spans="1:39">
       <c r="A53">
-        <v>16419</v>
+        <v>16449</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
@@ -6889,13 +6889,13 @@
     </row>
     <row r="54" spans="1:39">
       <c r="A54">
-        <v>16728</v>
+        <v>16763</v>
       </c>
       <c r="B54" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E54">
         <v>47</v>
@@ -6934,45 +6934,45 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC54">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD54">
-        <v>1.301948051948052</v>
+        <v>1.376996805111821</v>
       </c>
       <c r="AE54">
-        <v>1.126623376623377</v>
+        <v>1.172523961661342</v>
       </c>
       <c r="AF54">
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0.525974025974026</v>
+        <v>0.5814696485623003</v>
       </c>
       <c r="AH54">
-        <v>1.808441558441559</v>
+        <v>1.907348242811502</v>
       </c>
       <c r="AI54">
-        <v>0.9967532467532467</v>
+        <v>1.012779552715655</v>
       </c>
       <c r="AJ54">
-        <v>0.4188311688311688</v>
+        <v>0.476038338658147</v>
       </c>
       <c r="AK54">
-        <v>6.178571428571429</v>
+        <v>6.527156549520766</v>
       </c>
       <c r="AL54">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM54">
-        <v>1.997383004926109</v>
+        <v>2.11007216040542</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55">
-        <v>17027</v>
+        <v>17062</v>
       </c>
       <c r="B55" t="s">
         <v>92</v>
@@ -7037,13 +7037,13 @@
     </row>
     <row r="56" spans="1:39">
       <c r="A56">
-        <v>17335</v>
+        <v>17375</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
       </c>
       <c r="D56" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E56">
         <v>142</v>
@@ -7097,45 +7097,45 @@
         <v>0</v>
       </c>
       <c r="AB56" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC56">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD56">
-        <v>1.402597402597403</v>
+        <v>1.380191693290735</v>
       </c>
       <c r="AE56">
-        <v>1.331168831168831</v>
+        <v>1.309904153354633</v>
       </c>
       <c r="AF56">
-        <v>1.159090909090909</v>
+        <v>1.140575079872205</v>
       </c>
       <c r="AG56">
-        <v>1.448051948051948</v>
+        <v>1.424920127795527</v>
       </c>
       <c r="AH56">
-        <v>1.168831168831169</v>
+        <v>1.150159744408946</v>
       </c>
       <c r="AI56">
-        <v>1.126623376623377</v>
+        <v>1.108626198083067</v>
       </c>
       <c r="AJ56">
-        <v>1.00974025974026</v>
+        <v>0.9936102236421726</v>
       </c>
       <c r="AK56">
-        <v>8.646103896103897</v>
+        <v>8.507987220447284</v>
       </c>
       <c r="AL56">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM56">
-        <v>2.795076690550829</v>
+        <v>2.750426903161837</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57">
-        <v>17451</v>
+        <v>17491</v>
       </c>
       <c r="B57" t="s">
         <v>94</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="58" spans="1:39">
       <c r="A58">
-        <v>17705</v>
+        <v>17745</v>
       </c>
       <c r="B58" t="s">
         <v>95</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59">
-        <v>18120</v>
+        <v>18160</v>
       </c>
       <c r="B59" t="s">
         <v>96</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="60" spans="1:39">
       <c r="A60">
-        <v>18326</v>
+        <v>18366</v>
       </c>
       <c r="B60" t="s">
         <v>97</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="61" spans="1:39">
       <c r="A61">
-        <v>18843</v>
+        <v>18883</v>
       </c>
       <c r="B61" t="s">
         <v>98</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="62" spans="1:39">
       <c r="A62">
-        <v>19194</v>
+        <v>19234</v>
       </c>
       <c r="B62" t="s">
         <v>99</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63">
-        <v>19429</v>
+        <v>19469</v>
       </c>
       <c r="B63" t="s">
         <v>100</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64">
-        <v>19778</v>
+        <v>19818</v>
       </c>
       <c r="B64" t="s">
         <v>101</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="65" spans="1:39">
       <c r="A65">
-        <v>20066</v>
+        <v>20106</v>
       </c>
       <c r="B65" t="s">
         <v>102</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="66" spans="1:39">
       <c r="A66">
-        <v>20493</v>
+        <v>20533</v>
       </c>
       <c r="B66" t="s">
         <v>103</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67">
-        <v>20611</v>
+        <v>20651</v>
       </c>
       <c r="B67" t="s">
         <v>104</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="68" spans="1:39">
       <c r="A68">
-        <v>21046</v>
+        <v>21086</v>
       </c>
       <c r="B68" t="s">
         <v>105</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="69" spans="1:39">
       <c r="A69">
-        <v>21386</v>
+        <v>21426</v>
       </c>
       <c r="B69" t="s">
         <v>106</v>
@@ -8556,57 +8556,57 @@
     </row>
     <row r="70" spans="1:39">
       <c r="A70">
-        <v>21761</v>
+        <v>21806</v>
       </c>
       <c r="B70" t="s">
         <v>107</v>
       </c>
       <c r="D70" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="Y70">
         <v>0</v>
       </c>
       <c r="AB70" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC70">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD70">
-        <v>0.448051948051948</v>
+        <v>0.4408945686900959</v>
       </c>
       <c r="AE70">
-        <v>0.6201298701298701</v>
+        <v>0.610223642172524</v>
       </c>
       <c r="AF70">
         <v>0</v>
       </c>
       <c r="AG70">
-        <v>0.474025974025974</v>
+        <v>0.4664536741214058</v>
       </c>
       <c r="AH70">
-        <v>1.214285714285714</v>
+        <v>1.194888178913738</v>
       </c>
       <c r="AI70">
-        <v>0.5324675324675324</v>
+        <v>0.5239616613418531</v>
       </c>
       <c r="AJ70">
-        <v>0.2987012987012987</v>
+        <v>0.2939297124600639</v>
       </c>
       <c r="AK70">
-        <v>3.587662337662338</v>
+        <v>3.530351437699681</v>
       </c>
       <c r="AL70">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM70">
-        <v>1.159804635020152</v>
+        <v>1.141277404428776</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71">
-        <v>22081</v>
+        <v>22126</v>
       </c>
       <c r="B71" t="s">
         <v>108</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -8705,27 +8705,27 @@
         <v>0</v>
       </c>
       <c r="AH71">
-        <v>10.35</v>
+        <v>11.35</v>
       </c>
       <c r="AI71">
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="AJ71">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="AK71">
-        <v>33.1</v>
+        <v>36.6</v>
       </c>
       <c r="AL71">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM71">
-        <v>10.70043103448276</v>
+        <v>11.83189655172414</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="A72">
-        <v>22208</v>
+        <v>22253</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="73" spans="1:39">
       <c r="A73">
-        <v>22521</v>
+        <v>22566</v>
       </c>
       <c r="B73" t="s">
         <v>110</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="74" spans="1:39">
       <c r="A74">
-        <v>22895</v>
+        <v>22940</v>
       </c>
       <c r="B74" t="s">
         <v>111</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="75" spans="1:39">
       <c r="A75">
-        <v>23282</v>
+        <v>23327</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="76" spans="1:39">
       <c r="A76">
-        <v>23681</v>
+        <v>23726</v>
       </c>
       <c r="B76" t="s">
         <v>113</v>
@@ -9288,39 +9288,39 @@
         <v>226</v>
       </c>
       <c r="AD76">
-        <v>2.303030303030303</v>
+        <v>2.428030303030303</v>
       </c>
       <c r="AE76">
-        <v>1.662878787878788</v>
+        <v>1.746212121212121</v>
       </c>
       <c r="AF76">
-        <v>0.5681818181818182</v>
+        <v>0.6098484848484849</v>
       </c>
       <c r="AG76">
         <v>0.9166666666666666</v>
       </c>
       <c r="AH76">
-        <v>2.424242424242424</v>
+        <v>2.590909090909091</v>
       </c>
       <c r="AI76">
-        <v>1.257575757575758</v>
+        <v>1.299242424242424</v>
       </c>
       <c r="AJ76">
         <v>1.147727272727273</v>
       </c>
       <c r="AK76">
-        <v>10.28030303030303</v>
+        <v>10.73863636363636</v>
       </c>
       <c r="AL76">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM76">
-        <v>3.323373824451411</v>
+        <v>3.471541927899687</v>
       </c>
     </row>
     <row r="77" spans="1:39">
       <c r="A77">
-        <v>23802</v>
+        <v>23847</v>
       </c>
       <c r="B77" t="s">
         <v>114</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="78" spans="1:39">
       <c r="A78">
-        <v>24321</v>
+        <v>24366</v>
       </c>
       <c r="B78" t="s">
         <v>115</v>
@@ -9526,10 +9526,10 @@
         <v>240</v>
       </c>
       <c r="AD78">
-        <v>3.934782608695652</v>
+        <v>4.050724637681159</v>
       </c>
       <c r="AE78">
-        <v>1.869565217391304</v>
+        <v>1.927536231884058</v>
       </c>
       <c r="AF78">
         <v>0.5652173913043478</v>
@@ -9538,33 +9538,33 @@
         <v>0.2898550724637681</v>
       </c>
       <c r="AH78">
-        <v>4.891304347826087</v>
+        <v>5.065217391304348</v>
       </c>
       <c r="AI78">
-        <v>3.246376811594203</v>
+        <v>3.304347826086957</v>
       </c>
       <c r="AJ78">
         <v>0.2898550724637681</v>
       </c>
       <c r="AK78">
-        <v>15.08695652173913</v>
+        <v>15.4927536231884</v>
       </c>
       <c r="AL78">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM78">
-        <v>4.877248875562219</v>
+        <v>5.008433283358321</v>
       </c>
     </row>
     <row r="79" spans="1:39">
       <c r="A79">
-        <v>24629</v>
+        <v>24679</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
       </c>
       <c r="D79" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="G79">
         <v>34000</v>
@@ -9594,45 +9594,45 @@
         <v>0</v>
       </c>
       <c r="AB79" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC79">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD79">
-        <v>1.314935064935065</v>
+        <v>1.293929712460064</v>
       </c>
       <c r="AE79">
-        <v>1.016233766233766</v>
+        <v>1</v>
       </c>
       <c r="AF79">
-        <v>0.5194805194805194</v>
+        <v>0.5111821086261981</v>
       </c>
       <c r="AG79">
         <v>0</v>
       </c>
       <c r="AH79">
-        <v>1.873376623376623</v>
+        <v>1.843450479233227</v>
       </c>
       <c r="AI79">
-        <v>1.097402597402597</v>
+        <v>1.079872204472843</v>
       </c>
       <c r="AJ79">
-        <v>0.4285714285714285</v>
+        <v>0.4217252396166134</v>
       </c>
       <c r="AK79">
-        <v>6.25</v>
+        <v>6.150159744408946</v>
       </c>
       <c r="AL79">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM79">
-        <v>2.020474137931035</v>
+        <v>1.988198193235651</v>
       </c>
     </row>
     <row r="80" spans="1:39">
       <c r="A80">
-        <v>24949</v>
+        <v>24999</v>
       </c>
       <c r="B80" t="s">
         <v>117</v>
@@ -9751,13 +9751,13 @@
     </row>
     <row r="81" spans="1:39">
       <c r="A81">
-        <v>25257</v>
+        <v>25312</v>
       </c>
       <c r="B81" t="s">
         <v>118</v>
       </c>
       <c r="D81" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E81">
         <v>170</v>
@@ -9808,45 +9808,45 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC81">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD81">
-        <v>1.061688311688312</v>
+        <v>1.079872204472843</v>
       </c>
       <c r="AE81">
-        <v>0.2597402597402597</v>
+        <v>0.255591054313099</v>
       </c>
       <c r="AF81">
-        <v>0.1558441558441558</v>
+        <v>0.1533546325878594</v>
       </c>
       <c r="AG81">
-        <v>0.8798701298701299</v>
+        <v>0.9361022364217252</v>
       </c>
       <c r="AH81">
-        <v>1.616883116883117</v>
+        <v>1.661341853035144</v>
       </c>
       <c r="AI81">
-        <v>1.048701298701299</v>
+        <v>1.067092651757189</v>
       </c>
       <c r="AJ81">
-        <v>0.288961038961039</v>
+        <v>0.2843450479233227</v>
       </c>
       <c r="AK81">
-        <v>5.311688311688313</v>
+        <v>5.437699680511182</v>
       </c>
       <c r="AL81">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM81">
-        <v>1.717140618002687</v>
+        <v>1.757877051889391</v>
       </c>
     </row>
     <row r="82" spans="1:39">
       <c r="A82">
-        <v>25556</v>
+        <v>25611</v>
       </c>
       <c r="B82" t="s">
         <v>119</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83">
-        <v>25864</v>
+        <v>25924</v>
       </c>
       <c r="B83" t="s">
         <v>120</v>
       </c>
       <c r="D83" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E83">
         <v>153</v>
@@ -10004,45 +10004,45 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC83">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD83">
-        <v>2.220779220779221</v>
+        <v>2.246006389776358</v>
       </c>
       <c r="AE83">
-        <v>1.701298701298701</v>
+        <v>1.738019169329073</v>
       </c>
       <c r="AF83">
-        <v>0.5487012987012987</v>
+        <v>0.5399361022364217</v>
       </c>
       <c r="AG83">
-        <v>0.2467532467532468</v>
+        <v>0.2747603833865815</v>
       </c>
       <c r="AH83">
-        <v>2.691558441558441</v>
+        <v>2.776357827476038</v>
       </c>
       <c r="AI83">
-        <v>1.467532467532467</v>
+        <v>1.507987220447284</v>
       </c>
       <c r="AJ83">
-        <v>0.8733766233766234</v>
+        <v>0.8913738019169329</v>
       </c>
       <c r="AK83">
-        <v>9.750000000000002</v>
+        <v>9.974440894568689</v>
       </c>
       <c r="AL83">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM83">
-        <v>3.151939655172415</v>
+        <v>3.224495978847636</v>
       </c>
     </row>
     <row r="84" spans="1:39">
       <c r="A84">
-        <v>26078</v>
+        <v>26138</v>
       </c>
       <c r="B84" t="s">
         <v>121</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85">
-        <v>26335</v>
+        <v>26395</v>
       </c>
       <c r="B85" t="s">
         <v>122</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86">
-        <v>26668</v>
+        <v>26728</v>
       </c>
       <c r="B86" t="s">
         <v>123</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87">
-        <v>27087</v>
+        <v>27147</v>
       </c>
       <c r="B87" t="s">
         <v>124</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88">
-        <v>27315</v>
+        <v>27375</v>
       </c>
       <c r="B88" t="s">
         <v>125</v>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89">
-        <v>27742</v>
+        <v>27802</v>
       </c>
       <c r="B89" t="s">
         <v>126</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90">
-        <v>27954</v>
+        <v>28014</v>
       </c>
       <c r="B90" t="s">
         <v>127</v>
@@ -10773,13 +10773,13 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91">
-        <v>28370</v>
+        <v>28435</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="D91" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E91">
         <v>35</v>
@@ -10821,16 +10821,16 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC91">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD91">
-        <v>2.350649350649351</v>
+        <v>2.332268370607029</v>
       </c>
       <c r="AE91">
-        <v>1.25</v>
+        <v>1.249201277955271</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -10839,27 +10839,27 @@
         <v>0</v>
       </c>
       <c r="AH91">
-        <v>2.623376623376624</v>
+        <v>2.65814696485623</v>
       </c>
       <c r="AI91">
-        <v>1.662337662337662</v>
+        <v>1.674121405750799</v>
       </c>
       <c r="AJ91">
-        <v>0.7012987012987013</v>
+        <v>0.6900958466453674</v>
       </c>
       <c r="AK91">
-        <v>8.587662337662337</v>
+        <v>8.603833865814696</v>
       </c>
       <c r="AL91">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM91">
-        <v>2.77618394536498</v>
+        <v>2.781411810069406</v>
       </c>
     </row>
     <row r="92" spans="1:39">
       <c r="A92">
-        <v>28690</v>
+        <v>28755</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93">
-        <v>29007</v>
+        <v>29072</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94">
-        <v>29286</v>
+        <v>29351</v>
       </c>
       <c r="B94" t="s">
         <v>131</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95">
-        <v>29606</v>
+        <v>29671</v>
       </c>
       <c r="B95" t="s">
         <v>132</v>
@@ -11332,7 +11332,7 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96">
-        <v>29970</v>
+        <v>30035</v>
       </c>
       <c r="B96" t="s">
         <v>133</v>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97">
-        <v>30176</v>
+        <v>30241</v>
       </c>
       <c r="B97" t="s">
         <v>134</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="98" spans="1:39">
       <c r="A98">
-        <v>30417</v>
+        <v>30482</v>
       </c>
       <c r="B98" t="s">
         <v>135</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="99" spans="1:39">
       <c r="A99">
-        <v>30903</v>
+        <v>30968</v>
       </c>
       <c r="B99" t="s">
         <v>136</v>
@@ -11808,7 +11808,7 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100">
-        <v>31039</v>
+        <v>31104</v>
       </c>
       <c r="B100" t="s">
         <v>137</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="101" spans="1:39">
       <c r="A101">
-        <v>31541</v>
+        <v>31606</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="102" spans="1:39">
       <c r="A102">
-        <v>31706</v>
+        <v>31771</v>
       </c>
       <c r="B102" t="s">
         <v>139</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="103" spans="1:39">
       <c r="A103">
-        <v>32210</v>
+        <v>32275</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
@@ -12252,39 +12252,39 @@
         <v>234</v>
       </c>
       <c r="AD103">
-        <v>2.591439688715953</v>
+        <v>2.649805447470817</v>
       </c>
       <c r="AE103">
-        <v>1.023346303501945</v>
+        <v>1.062256809338521</v>
       </c>
       <c r="AF103">
-        <v>0.5758754863813229</v>
+        <v>0.5953307392996109</v>
       </c>
       <c r="AG103">
-        <v>0.7782101167315175</v>
+        <v>0.8171206225680934</v>
       </c>
       <c r="AH103">
-        <v>2.143968871595331</v>
+        <v>2.202334630350195</v>
       </c>
       <c r="AI103">
-        <v>1.727626459143969</v>
+        <v>1.766536964980545</v>
       </c>
       <c r="AJ103">
-        <v>1.354085603112841</v>
+        <v>1.392996108949416</v>
       </c>
       <c r="AK103">
-        <v>10.19455252918288</v>
+        <v>10.4863813229572</v>
       </c>
       <c r="AL103">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM103">
-        <v>3.295652757278948</v>
+        <v>3.389993962162888</v>
       </c>
     </row>
     <row r="104" spans="1:39">
       <c r="A104">
-        <v>32441</v>
+        <v>32506</v>
       </c>
       <c r="B104" t="s">
         <v>141</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="105" spans="1:39">
       <c r="A105">
-        <v>32850</v>
+        <v>32915</v>
       </c>
       <c r="B105" t="s">
         <v>142</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="106" spans="1:39">
       <c r="A106">
-        <v>33087</v>
+        <v>33152</v>
       </c>
       <c r="B106" t="s">
         <v>143</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="107" spans="1:39">
       <c r="A107">
-        <v>33330</v>
+        <v>33395</v>
       </c>
       <c r="B107" t="s">
         <v>144</v>
@@ -12724,13 +12724,13 @@
     </row>
     <row r="108" spans="1:39">
       <c r="A108">
-        <v>33798</v>
+        <v>33868</v>
       </c>
       <c r="B108" t="s">
         <v>145</v>
       </c>
       <c r="D108" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E108">
         <v>145</v>
@@ -12769,45 +12769,45 @@
         <v>0</v>
       </c>
       <c r="AB108" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC108">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD108">
-        <v>2.048701298701299</v>
+        <v>2.015974440894569</v>
       </c>
       <c r="AE108">
-        <v>1.61038961038961</v>
+        <v>1.584664536741214</v>
       </c>
       <c r="AF108">
-        <v>1.175324675324675</v>
+        <v>1.156549520766773</v>
       </c>
       <c r="AG108">
-        <v>1.399350649350649</v>
+        <v>1.376996805111821</v>
       </c>
       <c r="AH108">
-        <v>2.961038961038961</v>
+        <v>2.913738019169329</v>
       </c>
       <c r="AI108">
-        <v>1.571428571428571</v>
+        <v>1.546325878594249</v>
       </c>
       <c r="AJ108">
-        <v>1.477272727272727</v>
+        <v>1.453674121405751</v>
       </c>
       <c r="AK108">
-        <v>12.24350649350649</v>
+        <v>12.04792332268371</v>
       </c>
       <c r="AL108">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM108">
-        <v>3.958030116435288</v>
+        <v>3.894802798281371</v>
       </c>
     </row>
     <row r="109" spans="1:39">
       <c r="A109">
-        <v>34000</v>
+        <v>34070</v>
       </c>
       <c r="B109" t="s">
         <v>146</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="110" spans="1:39">
       <c r="A110">
-        <v>34417</v>
+        <v>34487</v>
       </c>
       <c r="B110" t="s">
         <v>147</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="111" spans="1:39">
       <c r="A111">
-        <v>34737</v>
+        <v>34807</v>
       </c>
       <c r="B111" t="s">
         <v>148</v>
@@ -13078,39 +13078,39 @@
         <v>227</v>
       </c>
       <c r="AD111">
-        <v>1.436293436293436</v>
+        <v>1.444015444015444</v>
       </c>
       <c r="AE111">
-        <v>1.563706563706564</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="AF111">
-        <v>0.2664092664092664</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AG111">
         <v>0</v>
       </c>
       <c r="AH111">
-        <v>1.810810810810811</v>
+        <v>1.826254826254826</v>
       </c>
       <c r="AI111">
-        <v>0.6795366795366795</v>
+        <v>0.6833976833976834</v>
       </c>
       <c r="AJ111">
-        <v>0.7104247104247104</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AK111">
-        <v>6.467181467181467</v>
+        <v>6.50965250965251</v>
       </c>
       <c r="AL111">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM111">
-        <v>2.090683663959526</v>
+        <v>2.10441352682732</v>
       </c>
     </row>
     <row r="112" spans="1:39">
       <c r="A112">
-        <v>35057</v>
+        <v>35127</v>
       </c>
       <c r="B112" t="s">
         <v>149</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="113" spans="1:39">
       <c r="A113">
-        <v>35287</v>
+        <v>35357</v>
       </c>
       <c r="B113" t="s">
         <v>150</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="114" spans="1:39">
       <c r="A114">
-        <v>35593</v>
+        <v>35663</v>
       </c>
       <c r="B114" t="s">
         <v>151</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="115" spans="1:39">
       <c r="A115">
-        <v>35975</v>
+        <v>36045</v>
       </c>
       <c r="B115" t="s">
         <v>152</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="116" spans="1:39">
       <c r="A116">
-        <v>36314</v>
+        <v>36384</v>
       </c>
       <c r="B116" t="s">
         <v>153</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="117" spans="1:39">
       <c r="A117">
-        <v>36636</v>
+        <v>36706</v>
       </c>
       <c r="B117" t="s">
         <v>154</v>
@@ -13735,39 +13735,39 @@
         <v>240</v>
       </c>
       <c r="AD117">
-        <v>1.446153846153846</v>
+        <v>1.453846153846154</v>
       </c>
       <c r="AE117">
-        <v>1.261538461538461</v>
+        <v>1.269230769230769</v>
       </c>
       <c r="AF117">
-        <v>0.6346153846153846</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="AG117">
-        <v>0.3807692307692307</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="AH117">
-        <v>2.338461538461539</v>
+        <v>2.353846153846154</v>
       </c>
       <c r="AI117">
-        <v>0.8153846153846154</v>
+        <v>0.823076923076923</v>
       </c>
       <c r="AJ117">
-        <v>0.6807692307692308</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="AK117">
-        <v>7.557692307692307</v>
+        <v>7.607692307692307</v>
       </c>
       <c r="AL117">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM117">
-        <v>2.44321949602122</v>
+        <v>2.459383289124669</v>
       </c>
     </row>
     <row r="118" spans="1:39">
       <c r="A118">
-        <v>36954</v>
+        <v>37024</v>
       </c>
       <c r="B118" t="s">
         <v>155</v>
@@ -13854,10 +13854,10 @@
         <v>245</v>
       </c>
       <c r="AD118">
-        <v>0.7808764940239044</v>
+        <v>0.852589641434263</v>
       </c>
       <c r="AE118">
-        <v>1.163346613545817</v>
+        <v>1.235059760956175</v>
       </c>
       <c r="AF118">
         <v>0.3545816733067729</v>
@@ -13866,33 +13866,33 @@
         <v>0.5537848605577689</v>
       </c>
       <c r="AH118">
-        <v>2.868525896414343</v>
+        <v>3.155378486055777</v>
       </c>
       <c r="AI118">
-        <v>1.075697211155378</v>
+        <v>1.219123505976096</v>
       </c>
       <c r="AJ118">
-        <v>0.9123505976095617</v>
+        <v>1.01593625498008</v>
       </c>
       <c r="AK118">
-        <v>7.709163346613546</v>
+        <v>8.386454183266931</v>
       </c>
       <c r="AL118">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM118">
-        <v>2.492186426706966</v>
+        <v>2.7111382057975</v>
       </c>
     </row>
     <row r="119" spans="1:39">
       <c r="A119">
-        <v>37264</v>
+        <v>37339</v>
       </c>
       <c r="B119" t="s">
         <v>156</v>
       </c>
       <c r="D119" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E119">
         <v>84</v>
@@ -13931,16 +13931,16 @@
         <v>0</v>
       </c>
       <c r="AB119" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC119">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD119">
-        <v>1.724025974025974</v>
+        <v>1.696485623003195</v>
       </c>
       <c r="AE119">
-        <v>0.1103896103896104</v>
+        <v>0.1086261980830671</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -13952,24 +13952,24 @@
         <v>0</v>
       </c>
       <c r="AI119">
-        <v>1.006493506493507</v>
+        <v>0.9904153354632588</v>
       </c>
       <c r="AJ119">
         <v>0</v>
       </c>
       <c r="AK119">
-        <v>2.840909090909091</v>
+        <v>2.795527156549521</v>
       </c>
       <c r="AL119">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM119">
-        <v>0.9183973354231975</v>
+        <v>0.9037264514707503</v>
       </c>
     </row>
     <row r="120" spans="1:39">
       <c r="A120">
-        <v>37490</v>
+        <v>37565</v>
       </c>
       <c r="B120" t="s">
         <v>157</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="121" spans="1:39">
       <c r="A121">
-        <v>37803</v>
+        <v>37878</v>
       </c>
       <c r="B121" t="s">
         <v>158</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="122" spans="1:39">
       <c r="A122">
-        <v>38219</v>
+        <v>38294</v>
       </c>
       <c r="B122" t="s">
         <v>159</v>
@@ -14294,39 +14294,39 @@
         <v>239</v>
       </c>
       <c r="AD122">
-        <v>1.875862068965517</v>
+        <v>1.906896551724138</v>
       </c>
       <c r="AE122">
-        <v>1.831034482758621</v>
+        <v>1.862068965517241</v>
       </c>
       <c r="AF122">
         <v>0</v>
       </c>
       <c r="AG122">
-        <v>1.213793103448276</v>
+        <v>1.23448275862069</v>
       </c>
       <c r="AH122">
-        <v>1.655172413793103</v>
+        <v>1.696551724137931</v>
       </c>
       <c r="AI122">
-        <v>1.589655172413793</v>
+        <v>1.610344827586207</v>
       </c>
       <c r="AJ122">
-        <v>0.4275862068965517</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="AK122">
-        <v>8.59310344827586</v>
+        <v>8.758620689655173</v>
       </c>
       <c r="AL122">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM122">
-        <v>2.777942925089179</v>
+        <v>2.831450653983353</v>
       </c>
     </row>
     <row r="123" spans="1:39">
       <c r="A123">
-        <v>38441</v>
+        <v>38516</v>
       </c>
       <c r="B123" t="s">
         <v>160</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="124" spans="1:39">
       <c r="A124">
-        <v>38681</v>
+        <v>38756</v>
       </c>
       <c r="B124" t="s">
         <v>161</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="125" spans="1:39">
       <c r="A125">
-        <v>39142</v>
+        <v>39217</v>
       </c>
       <c r="B125" t="s">
         <v>162</v>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="126" spans="1:39">
       <c r="A126">
-        <v>39441</v>
+        <v>39516</v>
       </c>
       <c r="B126" t="s">
         <v>163</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="127" spans="1:39">
       <c r="A127">
-        <v>39616</v>
+        <v>39691</v>
       </c>
       <c r="B127" t="s">
         <v>164</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="128" spans="1:39">
       <c r="A128">
-        <v>39862</v>
+        <v>39937</v>
       </c>
       <c r="B128" t="s">
         <v>165</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="129" spans="1:39">
       <c r="A129">
-        <v>40278</v>
+        <v>40353</v>
       </c>
       <c r="B129" t="s">
         <v>166</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="130" spans="1:39">
       <c r="A130">
-        <v>40711</v>
+        <v>40786</v>
       </c>
       <c r="B130" t="s">
         <v>167</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="131" spans="1:39">
       <c r="A131">
-        <v>40814</v>
+        <v>40889</v>
       </c>
       <c r="B131" t="s">
         <v>168</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="132" spans="1:39">
       <c r="A132">
-        <v>41340</v>
+        <v>41415</v>
       </c>
       <c r="B132" t="s">
         <v>169</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="133" spans="1:39">
       <c r="A133">
-        <v>41638</v>
+        <v>41713</v>
       </c>
       <c r="B133" t="s">
         <v>170</v>
@@ -15491,13 +15491,13 @@
     </row>
     <row r="134" spans="1:39">
       <c r="A134">
-        <v>41947</v>
+        <v>42027</v>
       </c>
       <c r="B134" t="s">
         <v>171</v>
       </c>
       <c r="D134" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="S134">
         <v>50.83</v>
@@ -15518,16 +15518,16 @@
         <v>0</v>
       </c>
       <c r="AB134" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC134">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD134">
-        <v>1.704545454545455</v>
+        <v>1.677316293929712</v>
       </c>
       <c r="AE134">
-        <v>0.7662337662337663</v>
+        <v>0.7539936102236422</v>
       </c>
       <c r="AF134">
         <v>0</v>
@@ -15536,27 +15536,27 @@
         <v>0</v>
       </c>
       <c r="AH134">
-        <v>2.266233766233766</v>
+        <v>2.230031948881789</v>
       </c>
       <c r="AI134">
-        <v>0.6298701298701299</v>
+        <v>0.6198083067092651</v>
       </c>
       <c r="AJ134">
-        <v>0.737012987012987</v>
+        <v>0.7252396166134185</v>
       </c>
       <c r="AK134">
-        <v>6.103896103896104</v>
+        <v>6.006389776357826</v>
       </c>
       <c r="AL134">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM134">
-        <v>1.973242274966413</v>
+        <v>1.941720832874297</v>
       </c>
     </row>
     <row r="135" spans="1:39">
       <c r="A135">
-        <v>42267</v>
+        <v>42347</v>
       </c>
       <c r="B135" t="s">
         <v>172</v>
@@ -15643,39 +15643,39 @@
         <v>251</v>
       </c>
       <c r="AD135">
-        <v>2.640926640926641</v>
+        <v>2.756756756756757</v>
       </c>
       <c r="AE135">
-        <v>1.555984555984556</v>
+        <v>1.594594594594595</v>
       </c>
       <c r="AF135">
-        <v>0.667953667953668</v>
+        <v>0.7065637065637066</v>
       </c>
       <c r="AG135">
-        <v>1.783783783783784</v>
+        <v>1.822393822393822</v>
       </c>
       <c r="AH135">
-        <v>2.667953667953668</v>
+        <v>2.783783783783784</v>
       </c>
       <c r="AI135">
-        <v>1.776061776061776</v>
+        <v>1.853281853281853</v>
       </c>
       <c r="AJ135">
-        <v>1.405405405405405</v>
+        <v>1.482625482625483</v>
       </c>
       <c r="AK135">
-        <v>12.4980694980695</v>
+        <v>13</v>
       </c>
       <c r="AL135">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM135">
-        <v>4.040324191186261</v>
+        <v>4.202586206896552</v>
       </c>
     </row>
     <row r="136" spans="1:39">
       <c r="A136">
-        <v>42548</v>
+        <v>42628</v>
       </c>
       <c r="B136" t="s">
         <v>173</v>
@@ -15794,7 +15794,7 @@
     </row>
     <row r="137" spans="1:39">
       <c r="A137">
-        <v>42886</v>
+        <v>42966</v>
       </c>
       <c r="B137" t="s">
         <v>174</v>
@@ -15832,13 +15832,13 @@
     </row>
     <row r="138" spans="1:39">
       <c r="A138">
-        <v>43194</v>
+        <v>43279</v>
       </c>
       <c r="B138" t="s">
         <v>175</v>
       </c>
       <c r="D138" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E138">
         <v>71</v>
@@ -15892,45 +15892,45 @@
         <v>0</v>
       </c>
       <c r="AB138" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC138">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD138">
-        <v>2.051948051948052</v>
+        <v>2.115015974440895</v>
       </c>
       <c r="AE138">
-        <v>1.636363636363636</v>
+        <v>1.706070287539936</v>
       </c>
       <c r="AF138">
-        <v>1.100649350649351</v>
+        <v>1.115015974440895</v>
       </c>
       <c r="AG138">
-        <v>1.376623376623377</v>
+        <v>1.4185303514377</v>
       </c>
       <c r="AH138">
-        <v>2.688311688311688</v>
+        <v>2.741214057507987</v>
       </c>
       <c r="AI138">
-        <v>1.5</v>
+        <v>1.539936102236422</v>
       </c>
       <c r="AJ138">
-        <v>1.435064935064935</v>
+        <v>1.507987220447284</v>
       </c>
       <c r="AK138">
-        <v>11.78896103896104</v>
+        <v>12.14376996805112</v>
       </c>
       <c r="AL138">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM138">
-        <v>3.811086542767578</v>
+        <v>3.925787705188939</v>
       </c>
     </row>
     <row r="139" spans="1:39">
       <c r="A139">
-        <v>43448</v>
+        <v>43533</v>
       </c>
       <c r="B139" t="s">
         <v>176</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="140" spans="1:39">
       <c r="A140">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B140" t="s">
         <v>177</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="141" spans="1:39">
       <c r="A141">
-        <v>43950</v>
+        <v>44035</v>
       </c>
       <c r="B141" t="s">
         <v>178</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="142" spans="1:39">
       <c r="A142">
-        <v>44280</v>
+        <v>44365</v>
       </c>
       <c r="B142" t="s">
         <v>179</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="143" spans="1:39">
       <c r="A143">
-        <v>44649</v>
+        <v>44734</v>
       </c>
       <c r="B143" t="s">
         <v>180</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="144" spans="1:39">
       <c r="A144">
-        <v>44936</v>
+        <v>45021</v>
       </c>
       <c r="B144" t="s">
         <v>181</v>
@@ -16644,7 +16644,7 @@
     </row>
     <row r="145" spans="1:39">
       <c r="A145">
-        <v>45308</v>
+        <v>45393</v>
       </c>
       <c r="B145" t="s">
         <v>182</v>
@@ -16749,21 +16749,21 @@
         <v>1.777777777777778</v>
       </c>
       <c r="AJ145">
-        <v>1.174603174603175</v>
+        <v>1.73015873015873</v>
       </c>
       <c r="AK145">
-        <v>13.19047619047619</v>
+        <v>13.74603174603175</v>
       </c>
       <c r="AL145">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM145">
-        <v>4.264162561576355</v>
+        <v>4.44376026272578</v>
       </c>
     </row>
     <row r="146" spans="1:39">
       <c r="A146">
-        <v>45733</v>
+        <v>45818</v>
       </c>
       <c r="B146" t="s">
         <v>183</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="147" spans="1:39">
       <c r="A147">
-        <v>45849</v>
+        <v>45934</v>
       </c>
       <c r="B147" t="s">
         <v>184</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="148" spans="1:39">
       <c r="A148">
-        <v>46360</v>
+        <v>46445</v>
       </c>
       <c r="B148" t="s">
         <v>185</v>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="149" spans="1:39">
       <c r="A149">
-        <v>46557</v>
+        <v>46642</v>
       </c>
       <c r="B149" t="s">
         <v>186</v>
@@ -17218,13 +17218,13 @@
     </row>
     <row r="150" spans="1:39">
       <c r="A150">
-        <v>47001</v>
+        <v>47091</v>
       </c>
       <c r="B150" t="s">
         <v>187</v>
       </c>
       <c r="D150" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="S150">
         <v>62.41</v>
@@ -17245,45 +17245,45 @@
         <v>0</v>
       </c>
       <c r="AB150" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC150">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD150">
-        <v>2.25974025974026</v>
+        <v>2.223642172523962</v>
       </c>
       <c r="AE150">
-        <v>1.834415584415584</v>
+        <v>1.805111821086262</v>
       </c>
       <c r="AF150">
-        <v>1.457792207792208</v>
+        <v>1.434504792332268</v>
       </c>
       <c r="AG150">
-        <v>1.519480519480519</v>
+        <v>1.495207667731629</v>
       </c>
       <c r="AH150">
-        <v>2.425324675324675</v>
+        <v>2.386581469648562</v>
       </c>
       <c r="AI150">
-        <v>1.512987012987013</v>
+        <v>1.488817891373802</v>
       </c>
       <c r="AJ150">
-        <v>1.402597402597403</v>
+        <v>1.380191693290735</v>
       </c>
       <c r="AK150">
-        <v>12.41233766233766</v>
+        <v>12.21405750798722</v>
       </c>
       <c r="AL150">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM150">
-        <v>4.012609158083296</v>
+        <v>3.94850997025449</v>
       </c>
     </row>
     <row r="151" spans="1:39">
       <c r="A151">
-        <v>47219</v>
+        <v>47309</v>
       </c>
       <c r="B151" t="s">
         <v>188</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="152" spans="1:39">
       <c r="A152">
-        <v>47555</v>
+        <v>47645</v>
       </c>
       <c r="B152" t="s">
         <v>189</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="153" spans="1:39">
       <c r="A153">
-        <v>47931</v>
+        <v>48021</v>
       </c>
       <c r="B153" t="s">
         <v>190</v>
@@ -17640,7 +17640,7 @@
     </row>
     <row r="154" spans="1:39">
       <c r="A154">
-        <v>48188</v>
+        <v>48278</v>
       </c>
       <c r="B154" t="s">
         <v>191</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="155" spans="1:39">
       <c r="A155">
-        <v>48566</v>
+        <v>48656</v>
       </c>
       <c r="B155" t="s">
         <v>192</v>
@@ -17878,13 +17878,13 @@
     </row>
     <row r="156" spans="1:39">
       <c r="A156">
-        <v>48909</v>
+        <v>49004</v>
       </c>
       <c r="B156" t="s">
         <v>193</v>
       </c>
       <c r="D156" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="S156">
         <v>50.83</v>
@@ -17905,10 +17905,10 @@
         <v>0</v>
       </c>
       <c r="AB156" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC156">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD156">
         <v>0</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="157" spans="1:39">
       <c r="A157">
-        <v>49229</v>
+        <v>49324</v>
       </c>
       <c r="B157" t="s">
         <v>194</v>
@@ -18030,39 +18030,39 @@
         <v>249</v>
       </c>
       <c r="AD157">
-        <v>1.905138339920949</v>
+        <v>1.936758893280632</v>
       </c>
       <c r="AE157">
-        <v>1.557312252964427</v>
+        <v>1.588932806324111</v>
       </c>
       <c r="AF157">
-        <v>0.3952569169960474</v>
+        <v>0.4110671936758893</v>
       </c>
       <c r="AG157">
-        <v>0.6086956521739131</v>
+        <v>0.6245059288537549</v>
       </c>
       <c r="AH157">
-        <v>2.134387351778656</v>
+        <v>2.197628458498024</v>
       </c>
       <c r="AI157">
-        <v>0.9090909090909091</v>
+        <v>0.9407114624505929</v>
       </c>
       <c r="AJ157">
-        <v>0.308300395256917</v>
+        <v>0.3241106719367589</v>
       </c>
       <c r="AK157">
-        <v>7.818181818181818</v>
+        <v>8.023715415019762</v>
       </c>
       <c r="AL157">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM157">
-        <v>2.52742946708464</v>
+        <v>2.593873517786561</v>
       </c>
     </row>
     <row r="158" spans="1:39">
       <c r="A158">
-        <v>49549</v>
+        <v>49644</v>
       </c>
       <c r="B158" t="s">
         <v>195</v>
@@ -18149,45 +18149,45 @@
         <v>244</v>
       </c>
       <c r="AD158">
-        <v>1.760617760617761</v>
+        <v>1.814671814671815</v>
       </c>
       <c r="AE158">
-        <v>1.93050193050193</v>
+        <v>1.984555984555985</v>
       </c>
       <c r="AF158">
-        <v>0.8687258687258688</v>
+        <v>0.8957528957528957</v>
       </c>
       <c r="AG158">
         <v>0.6640926640926641</v>
       </c>
       <c r="AH158">
-        <v>3.436293436293436</v>
+        <v>3.517374517374517</v>
       </c>
       <c r="AI158">
-        <v>1.737451737451738</v>
+        <v>1.791505791505791</v>
       </c>
       <c r="AJ158">
-        <v>1.227799227799228</v>
+        <v>1.281853281853282</v>
       </c>
       <c r="AK158">
-        <v>11.62548262548262</v>
+        <v>11.94980694980695</v>
       </c>
       <c r="AL158">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM158">
-        <v>3.758237917720676</v>
+        <v>3.863084143256557</v>
       </c>
     </row>
     <row r="159" spans="1:39">
       <c r="A159">
-        <v>49857</v>
+        <v>49957</v>
       </c>
       <c r="B159" t="s">
         <v>196</v>
       </c>
       <c r="D159" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -18241,45 +18241,45 @@
         <v>0</v>
       </c>
       <c r="AB159" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC159">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD159">
-        <v>2.220779220779221</v>
+        <v>2.281150159744409</v>
       </c>
       <c r="AE159">
-        <v>1.564935064935065</v>
+        <v>1.603833865814696</v>
       </c>
       <c r="AF159">
-        <v>1.444805194805195</v>
+        <v>1.453674121405751</v>
       </c>
       <c r="AG159">
-        <v>0.6655844155844156</v>
+        <v>0.6869009584664537</v>
       </c>
       <c r="AH159">
-        <v>2.532467532467532</v>
+        <v>2.587859424920128</v>
       </c>
       <c r="AI159">
-        <v>1.5</v>
+        <v>1.539936102236422</v>
       </c>
       <c r="AJ159">
-        <v>1.392857142857143</v>
+        <v>1.434504792332268</v>
       </c>
       <c r="AK159">
-        <v>11.32142857142857</v>
+        <v>11.58785942492013</v>
       </c>
       <c r="AL159">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM159">
-        <v>3.659944581280788</v>
+        <v>3.746075245125041</v>
       </c>
     </row>
     <row r="160" spans="1:39">
       <c r="A160">
-        <v>50045</v>
+        <v>50145</v>
       </c>
       <c r="B160" t="s">
         <v>197</v>
@@ -18398,7 +18398,7 @@
     </row>
     <row r="161" spans="1:39">
       <c r="A161">
-        <v>50497</v>
+        <v>50597</v>
       </c>
       <c r="B161" t="s">
         <v>198</v>
@@ -18485,10 +18485,10 @@
         <v>239</v>
       </c>
       <c r="AD161">
-        <v>2.065134099616858</v>
+        <v>2.180076628352491</v>
       </c>
       <c r="AE161">
-        <v>1.272030651340996</v>
+        <v>1.348659003831418</v>
       </c>
       <c r="AF161">
         <v>0.3486590038314176</v>
@@ -18497,27 +18497,27 @@
         <v>0.5134099616858238</v>
       </c>
       <c r="AH161">
-        <v>2.46360153256705</v>
+        <v>2.578544061302682</v>
       </c>
       <c r="AI161">
-        <v>1.222222222222222</v>
+        <v>1.298850574712644</v>
       </c>
       <c r="AJ161">
-        <v>0.8620689655172413</v>
+        <v>0.9003831417624522</v>
       </c>
       <c r="AK161">
-        <v>8.74712643678161</v>
+        <v>9.168582375478927</v>
       </c>
       <c r="AL161">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM161">
-        <v>2.827734839476813</v>
+        <v>2.963981371383274</v>
       </c>
     </row>
     <row r="162" spans="1:39">
       <c r="A162">
-        <v>50817</v>
+        <v>50917</v>
       </c>
       <c r="B162" t="s">
         <v>199</v>
@@ -18604,10 +18604,10 @@
         <v>242</v>
       </c>
       <c r="AD162">
-        <v>1.875862068965517</v>
+        <v>1.944827586206896</v>
       </c>
       <c r="AE162">
-        <v>1.7</v>
+        <v>1.768965517241379</v>
       </c>
       <c r="AF162">
         <v>0.5344827586206896</v>
@@ -18616,27 +18616,27 @@
         <v>1.068965517241379</v>
       </c>
       <c r="AH162">
-        <v>2.541379310344828</v>
+        <v>2.644827586206897</v>
       </c>
       <c r="AI162">
-        <v>1.551724137931034</v>
+        <v>1.620689655172414</v>
       </c>
       <c r="AJ162">
-        <v>1.417241379310345</v>
+        <v>1.451724137931034</v>
       </c>
       <c r="AK162">
-        <v>10.68965517241379</v>
+        <v>11.03448275862069</v>
       </c>
       <c r="AL162">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM162">
-        <v>3.455707491082046</v>
+        <v>3.56718192627824</v>
       </c>
     </row>
     <row r="163" spans="1:39">
       <c r="A163">
-        <v>51082</v>
+        <v>51182</v>
       </c>
       <c r="B163" t="s">
         <v>200</v>
@@ -18755,7 +18755,7 @@
     </row>
     <row r="164" spans="1:39">
       <c r="A164">
-        <v>51436</v>
+        <v>51536</v>
       </c>
       <c r="B164" t="s">
         <v>201</v>
@@ -18829,7 +18829,7 @@
     </row>
     <row r="165" spans="1:39">
       <c r="A165">
-        <v>51731</v>
+        <v>51831</v>
       </c>
       <c r="B165" t="s">
         <v>202</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="166" spans="1:39">
       <c r="A166">
-        <v>52034</v>
+        <v>52134</v>
       </c>
       <c r="B166" t="s">
         <v>203</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="167" spans="1:39">
       <c r="A167">
-        <v>52132</v>
+        <v>52232</v>
       </c>
       <c r="B167" t="s">
         <v>204</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="168" spans="1:39">
       <c r="A168">
-        <v>52480</v>
+        <v>52580</v>
       </c>
       <c r="B168" t="s">
         <v>205</v>
@@ -19218,7 +19218,7 @@
     </row>
     <row r="169" spans="1:39">
       <c r="A169">
-        <v>52845</v>
+        <v>52945</v>
       </c>
       <c r="B169" t="s">
         <v>206</v>
@@ -19337,7 +19337,7 @@
     </row>
     <row r="170" spans="1:39">
       <c r="A170">
-        <v>53200</v>
+        <v>53300</v>
       </c>
       <c r="B170" t="s">
         <v>207</v>
@@ -19456,7 +19456,7 @@
     </row>
     <row r="171" spans="1:39">
       <c r="A171">
-        <v>53511</v>
+        <v>53611</v>
       </c>
       <c r="B171" t="s">
         <v>208</v>
@@ -19560,7 +19560,7 @@
     </row>
     <row r="172" spans="1:39">
       <c r="A172">
-        <v>53933</v>
+        <v>54033</v>
       </c>
       <c r="B172" t="s">
         <v>209</v>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="173" spans="1:39">
       <c r="A173">
-        <v>54081</v>
+        <v>54181</v>
       </c>
       <c r="B173" t="s">
         <v>210</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="174" spans="1:39">
       <c r="A174">
-        <v>54380</v>
+        <v>54480</v>
       </c>
       <c r="B174" t="s">
         <v>211</v>
@@ -19917,13 +19917,13 @@
     </row>
     <row r="175" spans="1:39">
       <c r="A175">
-        <v>54881</v>
+        <v>54986</v>
       </c>
       <c r="B175" t="s">
         <v>212</v>
       </c>
       <c r="D175" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E175">
         <v>61</v>
@@ -19962,45 +19962,45 @@
         <v>0</v>
       </c>
       <c r="AB175" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC175">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD175">
-        <v>1.659090909090909</v>
+        <v>1.63258785942492</v>
       </c>
       <c r="AE175">
-        <v>0.7012987012987013</v>
+        <v>0.6900958466453674</v>
       </c>
       <c r="AF175">
-        <v>0.4383116883116883</v>
+        <v>0.4313099041533546</v>
       </c>
       <c r="AG175">
-        <v>0.6461038961038961</v>
+        <v>0.6357827476038339</v>
       </c>
       <c r="AH175">
-        <v>1.980519480519481</v>
+        <v>1.94888178913738</v>
       </c>
       <c r="AI175">
-        <v>0.8636363636363636</v>
+        <v>0.8498402555910544</v>
       </c>
       <c r="AJ175">
-        <v>0.3766233766233766</v>
+        <v>0.3706070287539936</v>
       </c>
       <c r="AK175">
-        <v>6.665584415584415</v>
+        <v>6.559105431309904</v>
       </c>
       <c r="AL175">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM175">
-        <v>2.154822548141513</v>
+        <v>2.120400462707943</v>
       </c>
     </row>
     <row r="176" spans="1:39">
       <c r="A176">
-        <v>55179</v>
+        <v>55284</v>
       </c>
       <c r="B176" t="s">
         <v>213</v>
@@ -20065,7 +20065,7 @@
     </row>
     <row r="177" spans="1:39">
       <c r="A177">
-        <v>55500</v>
+        <v>55605</v>
       </c>
       <c r="B177" t="s">
         <v>214</v>
@@ -20152,39 +20152,39 @@
         <v>247</v>
       </c>
       <c r="AD177">
-        <v>1.133333333333333</v>
+        <v>1.145833333333333</v>
       </c>
       <c r="AE177">
-        <v>1.5125</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="AF177">
         <v>0.4666666666666667</v>
       </c>
       <c r="AG177">
-        <v>0.3916666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="AH177">
-        <v>3.016666666666667</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="AI177">
-        <v>1.916666666666667</v>
+        <v>1.925</v>
       </c>
       <c r="AJ177">
         <v>0.2541666666666667</v>
       </c>
       <c r="AK177">
-        <v>8.691666666666666</v>
+        <v>8.745833333333334</v>
       </c>
       <c r="AL177">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM177">
-        <v>2.809806034482758</v>
+        <v>2.827316810344828</v>
       </c>
     </row>
     <row r="178" spans="1:39">
       <c r="A178">
-        <v>55552</v>
+        <v>55657</v>
       </c>
       <c r="B178" t="s">
         <v>215</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="179" spans="1:39">
       <c r="A179">
-        <v>55961</v>
+        <v>56066</v>
       </c>
       <c r="B179" t="s">
         <v>216</v>
@@ -20404,7 +20404,7 @@
     </row>
     <row r="180" spans="1:39">
       <c r="A180">
-        <v>56372</v>
+        <v>56477</v>
       </c>
       <c r="B180" t="s">
         <v>217</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="181" spans="1:39">
       <c r="A181">
-        <v>56560</v>
+        <v>56665</v>
       </c>
       <c r="B181" t="s">
         <v>218</v>
@@ -20642,7 +20642,7 @@
     </row>
     <row r="182" spans="1:39">
       <c r="A182">
-        <v>56951</v>
+        <v>57056</v>
       </c>
       <c r="B182" t="s">
         <v>219</v>
@@ -20752,7 +20752,7 @@
     </row>
     <row r="183" spans="1:39">
       <c r="A183">
-        <v>57212</v>
+        <v>57317</v>
       </c>
       <c r="B183" t="s">
         <v>220</v>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="184" spans="1:39">
       <c r="A184">
-        <v>57740</v>
+        <v>57845</v>
       </c>
       <c r="B184" t="s">
         <v>221</v>
@@ -20990,7 +20990,7 @@
     </row>
     <row r="185" spans="1:39">
       <c r="A185">
-        <v>57912</v>
+        <v>58017</v>
       </c>
       <c r="B185" t="s">
         <v>222</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="186" spans="1:39">
       <c r="A186">
-        <v>58311</v>
+        <v>58416</v>
       </c>
       <c r="B186" t="s">
         <v>223</v>
@@ -21228,7 +21228,7 @@
     </row>
     <row r="187" spans="1:39">
       <c r="A187">
-        <v>58504</v>
+        <v>58609</v>
       </c>
       <c r="B187" t="s">
         <v>224</v>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="188" spans="1:39">
       <c r="A188">
-        <v>58815</v>
+        <v>58920</v>
       </c>
       <c r="B188" t="s">
         <v>225</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="189" spans="1:39">
       <c r="A189">
-        <v>59340</v>
+        <v>59445</v>
       </c>
       <c r="B189" t="s">
         <v>226</v>
@@ -21520,10 +21520,10 @@
         <v>232</v>
       </c>
       <c r="AD189">
-        <v>3.549668874172185</v>
+        <v>3.615894039735099</v>
       </c>
       <c r="AE189">
-        <v>3.013245033112583</v>
+        <v>3.14569536423841</v>
       </c>
       <c r="AF189">
         <v>0.7549668874172185</v>
@@ -21532,27 +21532,27 @@
         <v>0.7682119205298014</v>
       </c>
       <c r="AH189">
-        <v>4.092715231788079</v>
+        <v>4.225165562913907</v>
       </c>
       <c r="AI189">
-        <v>2.668874172185431</v>
+        <v>2.735099337748344</v>
       </c>
       <c r="AJ189">
         <v>1.370860927152318</v>
       </c>
       <c r="AK189">
-        <v>16.21854304635761</v>
+        <v>16.6158940397351</v>
       </c>
       <c r="AL189">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM189">
-        <v>5.243063484813884</v>
+        <v>5.37151746974195</v>
       </c>
     </row>
     <row r="190" spans="1:39">
       <c r="A190">
-        <v>59441</v>
+        <v>59546</v>
       </c>
       <c r="B190" t="s">
         <v>227</v>
@@ -21647,7 +21647,7 @@
     </row>
     <row r="191" spans="1:39">
       <c r="A191">
-        <v>59807</v>
+        <v>59912</v>
       </c>
       <c r="B191" t="s">
         <v>228</v>
@@ -21754,7 +21754,7 @@
     </row>
     <row r="192" spans="1:39">
       <c r="A192">
-        <v>60109</v>
+        <v>60214</v>
       </c>
       <c r="B192" t="s">
         <v>229</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="193" spans="1:39">
       <c r="A193">
-        <v>60413</v>
+        <v>60518</v>
       </c>
       <c r="B193" t="s">
         <v>230</v>
@@ -21992,7 +21992,7 @@
     </row>
     <row r="194" spans="1:39">
       <c r="A194">
-        <v>60672</v>
+        <v>60777</v>
       </c>
       <c r="B194" t="s">
         <v>231</v>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="195" spans="1:39">
       <c r="A195">
-        <v>61213</v>
+        <v>61318</v>
       </c>
       <c r="B195" t="s">
         <v>232</v>
@@ -22230,7 +22230,7 @@
     </row>
     <row r="196" spans="1:39">
       <c r="A196">
-        <v>61529</v>
+        <v>61634</v>
       </c>
       <c r="B196" t="s">
         <v>233</v>
@@ -22349,7 +22349,7 @@
     </row>
     <row r="197" spans="1:39">
       <c r="A197">
-        <v>61900</v>
+        <v>62005</v>
       </c>
       <c r="B197" t="s">
         <v>234</v>
@@ -22468,7 +22468,7 @@
     </row>
     <row r="198" spans="1:39">
       <c r="A198">
-        <v>62022</v>
+        <v>62127</v>
       </c>
       <c r="B198" t="s">
         <v>235</v>
@@ -22587,13 +22587,13 @@
     </row>
     <row r="199" spans="1:39">
       <c r="A199">
-        <v>62528</v>
+        <v>62638</v>
       </c>
       <c r="B199" t="s">
         <v>236</v>
       </c>
       <c r="D199" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E199">
         <v>93</v>
@@ -22647,51 +22647,51 @@
         <v>0</v>
       </c>
       <c r="AB199" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC199">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD199">
-        <v>0.7077922077922078</v>
+        <v>0.731629392971246</v>
       </c>
       <c r="AE199">
-        <v>0.6948051948051948</v>
+        <v>0.792332268370607</v>
       </c>
       <c r="AF199">
-        <v>0.1331168831168831</v>
+        <v>0.1853035143769968</v>
       </c>
       <c r="AG199">
-        <v>1.415584415584416</v>
+        <v>1.501597444089457</v>
       </c>
       <c r="AH199">
-        <v>0</v>
+        <v>0.06070287539936102</v>
       </c>
       <c r="AI199">
-        <v>0.6883116883116883</v>
+        <v>0.7859424920127795</v>
       </c>
       <c r="AJ199">
         <v>0</v>
       </c>
       <c r="AK199">
-        <v>3.63961038961039</v>
+        <v>4.057507987220447</v>
       </c>
       <c r="AL199">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM199">
-        <v>1.176598186296462</v>
+        <v>1.311694392420403</v>
       </c>
     </row>
     <row r="200" spans="1:39">
       <c r="A200">
-        <v>62836</v>
+        <v>62951</v>
       </c>
       <c r="B200" t="s">
         <v>237</v>
       </c>
       <c r="D200" s="2">
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="E200">
         <v>190</v>
@@ -22727,45 +22727,45 @@
         <v>0</v>
       </c>
       <c r="AB200" s="3">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AC200">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD200">
-        <v>1.616883116883117</v>
+        <v>1.591054313099042</v>
       </c>
       <c r="AE200">
-        <v>1.165584415584416</v>
+        <v>1.146964856230032</v>
       </c>
       <c r="AF200">
         <v>0</v>
       </c>
       <c r="AG200">
-        <v>0.7987012987012987</v>
+        <v>0.7859424920127795</v>
       </c>
       <c r="AH200">
-        <v>1.948051948051948</v>
+        <v>1.916932907348243</v>
       </c>
       <c r="AI200">
-        <v>1.006493506493507</v>
+        <v>0.9904153354632588</v>
       </c>
       <c r="AJ200">
-        <v>0.7987012987012987</v>
+        <v>0.7859424920127795</v>
       </c>
       <c r="AK200">
-        <v>7.334415584415584</v>
+        <v>7.217252396166134</v>
       </c>
       <c r="AL200">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM200">
-        <v>2.371039520824004</v>
+        <v>2.333163490139914</v>
       </c>
     </row>
     <row r="201" spans="1:39">
       <c r="A201">
-        <v>63154</v>
+        <v>63269</v>
       </c>
       <c r="B201" t="s">
         <v>238</v>
@@ -22852,39 +22852,39 @@
         <v>113</v>
       </c>
       <c r="AD201">
-        <v>1.121338912133891</v>
+        <v>1.163179916317992</v>
       </c>
       <c r="AE201">
-        <v>0.8200836820083682</v>
+        <v>0.9037656903765691</v>
       </c>
       <c r="AF201">
-        <v>0.3263598326359833</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="AG201">
         <v>0.7280334728033473</v>
       </c>
       <c r="AH201">
-        <v>1.640167364016736</v>
+        <v>1.807531380753138</v>
       </c>
       <c r="AI201">
-        <v>0.8200836820083682</v>
+        <v>0.9037656903765691</v>
       </c>
       <c r="AJ201">
-        <v>0.8200836820083682</v>
+        <v>0.9037656903765691</v>
       </c>
       <c r="AK201">
-        <v>6.276150627615063</v>
+        <v>6.778242677824268</v>
       </c>
       <c r="AL201">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM201">
-        <v>2.028928004616938</v>
+        <v>2.191242244986294</v>
       </c>
     </row>
     <row r="202" spans="1:39">
       <c r="A202">
-        <v>63475</v>
+        <v>63590</v>
       </c>
       <c r="B202" t="s">
         <v>239</v>
@@ -23003,7 +23003,7 @@
     </row>
     <row r="203" spans="1:39">
       <c r="A203">
-        <v>63618</v>
+        <v>63733</v>
       </c>
       <c r="B203" t="s">
         <v>240</v>
@@ -23122,7 +23122,7 @@
     </row>
     <row r="204" spans="1:39">
       <c r="A204">
-        <v>63918</v>
+        <v>64033</v>
       </c>
       <c r="B204" t="s">
         <v>241</v>
@@ -23241,7 +23241,7 @@
     </row>
     <row r="205" spans="1:39">
       <c r="A205">
-        <v>64243</v>
+        <v>64358</v>
       </c>
       <c r="B205" t="s">
         <v>242</v>
@@ -23348,7 +23348,7 @@
     </row>
     <row r="206" spans="1:39">
       <c r="A206">
-        <v>64557</v>
+        <v>64672</v>
       </c>
       <c r="B206" t="s">
         <v>243</v>
@@ -23467,7 +23467,7 @@
     </row>
     <row r="207" spans="1:39">
       <c r="A207">
-        <v>65019</v>
+        <v>65134</v>
       </c>
       <c r="B207" t="s">
         <v>244</v>
@@ -23557,7 +23557,7 @@
         <v>3.622377622377623</v>
       </c>
       <c r="AE207">
-        <v>2.769230769230769</v>
+        <v>2.664335664335664</v>
       </c>
       <c r="AF207">
         <v>1.762237762237762</v>
@@ -23569,24 +23569,24 @@
         <v>3.951048951048951</v>
       </c>
       <c r="AI207">
-        <v>2.475524475524475</v>
+        <v>2.223776223776224</v>
       </c>
       <c r="AJ207">
         <v>2.223776223776224</v>
       </c>
       <c r="AK207">
-        <v>18.6013986013986</v>
+        <v>18.24475524475524</v>
       </c>
       <c r="AL207">
         <v>0.3232758620689655</v>
       </c>
       <c r="AM207">
-        <v>6.013383168555582</v>
+        <v>5.898088979985531</v>
       </c>
     </row>
     <row r="208" spans="1:39">
       <c r="A208">
-        <v>65396</v>
+        <v>65511</v>
       </c>
       <c r="B208" t="s">
         <v>245</v>
@@ -23693,7 +23693,7 @@
     </row>
     <row r="209" spans="1:39">
       <c r="A209">
-        <v>65673</v>
+        <v>65788</v>
       </c>
       <c r="B209" t="s">
         <v>246</v>
@@ -23806,7 +23806,7 @@
     </row>
     <row r="210" spans="1:39">
       <c r="A210">
-        <v>65958</v>
+        <v>66073</v>
       </c>
       <c r="B210" t="s">
         <v>247</v>
@@ -23925,7 +23925,7 @@
     </row>
     <row r="211" spans="1:39">
       <c r="A211">
-        <v>66299</v>
+        <v>66414</v>
       </c>
       <c r="B211" t="s">
         <v>248</v>
@@ -24011,7 +24011,7 @@
     </row>
     <row r="212" spans="1:39">
       <c r="A212">
-        <v>66634</v>
+        <v>66749</v>
       </c>
       <c r="B212" t="s">
         <v>249</v>
@@ -24064,7 +24064,7 @@
     </row>
     <row r="213" spans="1:39">
       <c r="A213">
-        <v>66828</v>
+        <v>66943</v>
       </c>
       <c r="B213" t="s">
         <v>250</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="214" spans="1:39">
       <c r="A214">
-        <v>67182</v>
+        <v>67297</v>
       </c>
       <c r="B214" t="s">
         <v>251</v>
@@ -24302,7 +24302,7 @@
     </row>
     <row r="215" spans="1:39">
       <c r="A215">
-        <v>67515</v>
+        <v>67630</v>
       </c>
       <c r="B215" t="s">
         <v>252</v>
